--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1904.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1904.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29F4B8A-B40D-4916-AB3C-0484E550F4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A562DF-F7BF-451D-B85E-B4FCC634D7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57555" yWindow="75" windowWidth="28650" windowHeight="23040" activeTab="1" xr2:uid="{7B2F965D-C02F-4A79-987B-5FFE2A3D4199}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{7B2F965D-C02F-4A79-987B-5FFE2A3D4199}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="198">
   <si>
     <t>губ</t>
   </si>
@@ -622,6 +622,15 @@
   </si>
   <si>
     <t>чс-уез-о YY</t>
+  </si>
+  <si>
+    <t>v-чж</t>
+  </si>
+  <si>
+    <t>v-чр</t>
+  </si>
+  <si>
+    <t>v-чс</t>
   </si>
 </sst>
 </file>
@@ -2528,13 +2537,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF631092-2E77-4CCB-91F1-3F28E7153E1C}">
-  <dimension ref="A1:AC118"/>
+  <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z86" sqref="Z86"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2560,9 +2569,10 @@
     <col min="26" max="27" width="10.578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.20703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.20703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8.83984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2647,8 +2657,17 @@
       <c r="AC1" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AE1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -2739,8 +2758,20 @@
         <f>Z2+AA2-AB2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AE2" s="5">
+        <f>B2-H2-T2</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="5">
+        <f>C2-L2-X2</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="5">
+        <f>D2-P2-AB2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2831,8 +2862,20 @@
         <f t="shared" ref="AC3:AC66" si="5">Z3+AA3-AB3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AE3" s="5">
+        <f t="shared" ref="AE3:AE66" si="6">B3-H3-T3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="5">
+        <f t="shared" ref="AF3:AF66" si="7">C3-L3-X3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="5">
+        <f t="shared" ref="AG3:AG66" si="8">D3-P3-AB3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2923,8 +2966,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AE4" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -3015,8 +3070,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AE5" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -3107,8 +3174,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AE6" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -3199,8 +3278,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AE7" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -3291,8 +3382,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AE8" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -3302,8 +3405,8 @@
       <c r="C9" s="3">
         <v>55140</v>
       </c>
-      <c r="D9" s="3">
-        <v>34518</v>
+      <c r="D9" s="8">
+        <v>34513</v>
       </c>
       <c r="F9" s="3">
         <v>76729</v>
@@ -3383,8 +3486,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AE9" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -3475,8 +3590,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AE10" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -3567,8 +3694,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AE11" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -3659,8 +3798,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AE12" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -3751,8 +3902,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AE13" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -3843,8 +4006,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AE14" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -3935,8 +4110,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AE15" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -4027,8 +4214,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AE16" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -4119,8 +4318,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AE17" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -4211,8 +4422,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AE18" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -4303,8 +4526,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AE19" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4395,8 +4630,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AE20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -4487,8 +4734,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AE21" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -4579,8 +4838,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AE22" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -4671,8 +4942,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AE23" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -4763,8 +5046,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AE24" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -4855,8 +5150,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:29">
+      <c r="AE25" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -4947,8 +5254,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:29">
+      <c r="AE26" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -5039,8 +5358,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:29">
+      <c r="AE27" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -5131,8 +5462,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:29">
+      <c r="AE28" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -5223,8 +5566,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AE29" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -5315,8 +5670,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:29">
+      <c r="AE30" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -5407,8 +5774,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:29">
+      <c r="AE31" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -5499,8 +5878,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:29">
+      <c r="AE32" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -5591,8 +5982,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:29">
+      <c r="AE33" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -5683,8 +6086,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:29">
+      <c r="AE34" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -5775,8 +6190,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:29">
+      <c r="AE35" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -5867,8 +6294,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:29">
+      <c r="AE36" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -5959,8 +6398,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:29">
+      <c r="AE37" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -6051,8 +6502,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:29">
+      <c r="AE38" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -6143,8 +6606,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:29">
+      <c r="AE39" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -6235,8 +6710,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:29">
+      <c r="AE40" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -6327,8 +6814,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:29">
+      <c r="AE41" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -6338,8 +6837,8 @@
       <c r="C42" s="3">
         <v>40097</v>
       </c>
-      <c r="D42" s="3">
-        <v>31059</v>
+      <c r="D42" s="8">
+        <v>31029</v>
       </c>
       <c r="F42" s="3">
         <v>678991</v>
@@ -6419,8 +6918,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:29">
+      <c r="AE42" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -6511,8 +7022,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:29">
+      <c r="AE43" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
         <v>119</v>
       </c>
@@ -6603,8 +7126,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:29">
+      <c r="AE44" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" t="s">
         <v>120</v>
       </c>
@@ -6695,8 +7230,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:29">
+      <c r="AE45" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -6787,8 +7334,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:29">
+      <c r="AE46" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -6879,8 +7438,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:29">
+      <c r="AE47" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -6971,8 +7542,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:29">
+      <c r="AE48" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -7063,8 +7646,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:29">
+      <c r="AE49" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -7155,8 +7750,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:29">
+      <c r="AE50" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -7247,8 +7854,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:29">
+      <c r="AE51" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -7339,8 +7958,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:29">
+      <c r="AE52" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -7431,8 +8062,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:29">
+      <c r="AE53" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" t="s">
         <v>138</v>
       </c>
@@ -7523,8 +8166,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:29">
+      <c r="AE54" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -7615,8 +8270,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:29">
+      <c r="AE55" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -7707,8 +8374,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:29">
+      <c r="AE56" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -7799,8 +8478,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:29">
+      <c r="AE57" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -7891,8 +8582,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:29">
+      <c r="AE58" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" t="s">
         <v>127</v>
       </c>
@@ -7983,8 +8686,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:29">
+      <c r="AE59" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -8075,8 +8790,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:29">
+      <c r="AE60" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -8167,8 +8894,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:29">
+      <c r="AE61" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -8259,8 +8998,20 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="63" spans="1:29">
+      <c r="AE62" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -8351,8 +9102,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:29">
+      <c r="AE63" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" t="s">
         <v>130</v>
       </c>
@@ -8443,8 +9206,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:29">
+      <c r="AE64" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -8535,8 +9310,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:29">
+      <c r="AE65" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -8627,8 +9414,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:29">
+      <c r="AE66" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -8651,7 +9450,7 @@
         <v>473418</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" ref="I67:I107" si="6">F67+G67-H67</f>
+        <f t="shared" ref="I67:I107" si="9">F67+G67-H67</f>
         <v>0</v>
       </c>
       <c r="J67" s="3">
@@ -8664,7 +9463,7 @@
         <v>15394</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" ref="M67:M107" si="7">J67+K67-L67</f>
+        <f t="shared" ref="M67:M107" si="10">J67+K67-L67</f>
         <v>0</v>
       </c>
       <c r="N67" s="3">
@@ -8677,7 +9476,7 @@
         <v>10404</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" ref="Q67:Q107" si="8">N67+O67-P67</f>
+        <f t="shared" ref="Q67:Q107" si="11">N67+O67-P67</f>
         <v>0</v>
       </c>
       <c r="R67" s="3">
@@ -8690,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="5">
-        <f t="shared" ref="U67:U107" si="9">R67+S67-T67</f>
+        <f t="shared" ref="U67:U107" si="12">R67+S67-T67</f>
         <v>0</v>
       </c>
       <c r="V67" s="3">
@@ -8703,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="5">
-        <f t="shared" ref="Y67:Y107" si="10">V67+W67-X67</f>
+        <f t="shared" ref="Y67:Y107" si="13">V67+W67-X67</f>
         <v>0</v>
       </c>
       <c r="Z67" s="3">
@@ -8716,11 +9515,23 @@
         <v>0</v>
       </c>
       <c r="AC67" s="5">
-        <f t="shared" ref="AC67:AC107" si="11">Z67+AA67-AB67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
+        <f t="shared" ref="AC67:AC107" si="14">Z67+AA67-AB67</f>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="5">
+        <f t="shared" ref="AE67:AE122" si="15">B67-H67-T67</f>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="5">
+        <f t="shared" ref="AF67:AF122" si="16">C67-L67-X67</f>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="5">
+        <f t="shared" ref="AG67:AG122" si="17">D67-P67-AB67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -8743,7 +9554,7 @@
         <v>228900</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J68" s="3">
@@ -8756,7 +9567,7 @@
         <v>7856</v>
       </c>
       <c r="M68" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N68" s="3">
@@ -8769,7 +9580,7 @@
         <v>5062</v>
       </c>
       <c r="Q68" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R68" s="3">
@@ -8782,7 +9593,7 @@
         <v>2433687</v>
       </c>
       <c r="U68" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V68" s="3">
@@ -8795,7 +9606,7 @@
         <v>110798</v>
       </c>
       <c r="Y68" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z68" s="3">
@@ -8808,11 +9619,23 @@
         <v>63811</v>
       </c>
       <c r="AC68" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -8835,7 +9658,7 @@
         <v>156113</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J69" s="3">
@@ -8848,7 +9671,7 @@
         <v>7024</v>
       </c>
       <c r="M69" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N69" s="3">
@@ -8861,7 +9684,7 @@
         <v>5409</v>
       </c>
       <c r="Q69" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R69" s="3">
@@ -8874,7 +9697,7 @@
         <v>1102184</v>
       </c>
       <c r="U69" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V69" s="3">
@@ -8887,7 +9710,7 @@
         <v>44906</v>
       </c>
       <c r="Y69" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z69" s="3">
@@ -8900,11 +9723,23 @@
         <v>27491</v>
       </c>
       <c r="AC69" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF69" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -8927,7 +9762,7 @@
         <v>9497100</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-183613</v>
       </c>
       <c r="J70" s="3">
@@ -8940,7 +9775,7 @@
         <v>356393</v>
       </c>
       <c r="M70" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-6692</v>
       </c>
       <c r="N70" s="3">
@@ -8953,7 +9788,7 @@
         <v>258923</v>
       </c>
       <c r="Q70" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-4727</v>
       </c>
       <c r="R70" s="3">
@@ -8966,7 +9801,7 @@
         <v>67913114</v>
       </c>
       <c r="U70" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-3202038</v>
       </c>
       <c r="V70" s="3">
@@ -8979,7 +9814,7 @@
         <v>3435723</v>
       </c>
       <c r="Y70" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-83514</v>
       </c>
       <c r="Z70" s="3">
@@ -8992,11 +9827,23 @@
         <v>2093929</v>
       </c>
       <c r="AC70" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-53125</v>
       </c>
-    </row>
-    <row r="71" spans="1:29">
+      <c r="AE70" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -9019,7 +9866,7 @@
         <v>253437</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J71" s="3">
@@ -9032,7 +9879,7 @@
         <v>13257</v>
       </c>
       <c r="M71" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N71" s="3">
@@ -9045,7 +9892,7 @@
         <v>8792</v>
       </c>
       <c r="Q71" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R71" s="3">
@@ -9058,7 +9905,7 @@
         <v>2583537</v>
       </c>
       <c r="U71" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V71" s="3">
@@ -9071,7 +9918,7 @@
         <v>148558</v>
       </c>
       <c r="Y71" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z71" s="3">
@@ -9084,11 +9931,23 @@
         <v>75041</v>
       </c>
       <c r="AC71" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE71" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" t="s">
         <v>137</v>
       </c>
@@ -9111,7 +9970,7 @@
         <v>15132888</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-183613</v>
       </c>
       <c r="J72" s="3">
@@ -9124,7 +9983,7 @@
         <v>570290</v>
       </c>
       <c r="M72" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-6692</v>
       </c>
       <c r="N72" s="3">
@@ -9137,7 +9996,7 @@
         <v>397943</v>
       </c>
       <c r="Q72" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-4727</v>
       </c>
       <c r="R72" s="3">
@@ -9150,7 +10009,7 @@
         <v>104629608</v>
       </c>
       <c r="U72" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-3202038</v>
       </c>
       <c r="V72" s="3">
@@ -9163,7 +10022,7 @@
         <v>4968884</v>
       </c>
       <c r="Y72" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-83514</v>
       </c>
       <c r="Z72" s="3">
@@ -9176,11 +10035,23 @@
         <v>3008509</v>
       </c>
       <c r="AC72" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-53125</v>
       </c>
-    </row>
-    <row r="73" spans="1:29">
+      <c r="AE72" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" t="s">
         <v>139</v>
       </c>
@@ -9203,7 +10074,7 @@
         <v>293005</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J73" s="3">
@@ -9216,7 +10087,7 @@
         <v>5769</v>
       </c>
       <c r="M73" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N73" s="8">
@@ -9229,7 +10100,7 @@
         <v>3626</v>
       </c>
       <c r="Q73" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R73" s="3">
@@ -9242,7 +10113,7 @@
         <v>766963</v>
       </c>
       <c r="U73" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V73" s="3">
@@ -9255,7 +10126,7 @@
         <v>21062</v>
       </c>
       <c r="Y73" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z73" s="3">
@@ -9268,11 +10139,23 @@
         <v>14365</v>
       </c>
       <c r="AC73" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" t="s">
         <v>140</v>
       </c>
@@ -9295,7 +10178,7 @@
         <v>30298</v>
       </c>
       <c r="I74" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="J74" s="3" t="s">
@@ -9308,7 +10191,7 @@
         <v>948</v>
       </c>
       <c r="M74" s="5" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N74" s="3" t="s">
@@ -9321,7 +10204,7 @@
         <v>540</v>
       </c>
       <c r="Q74" s="5" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="R74" s="3">
@@ -9334,7 +10217,7 @@
         <v>123000</v>
       </c>
       <c r="U74" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V74" s="3" t="s">
@@ -9347,443 +10230,503 @@
         <v>3110</v>
       </c>
       <c r="Y74" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z74" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>1592</v>
+      </c>
+      <c r="AC74" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE74" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="3">
+        <v>656932</v>
+      </c>
+      <c r="C75" s="3">
+        <v>17720</v>
+      </c>
+      <c r="D75" s="3">
+        <v>12288</v>
+      </c>
+      <c r="F75" s="3">
+        <v>30724</v>
+      </c>
+      <c r="G75" s="3">
+        <v>18115</v>
+      </c>
+      <c r="H75" s="3">
+        <v>48839</v>
+      </c>
+      <c r="I75" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
+        <v>798</v>
+      </c>
+      <c r="K75" s="3">
+        <v>762</v>
+      </c>
+      <c r="L75" s="3">
+        <v>1560</v>
+      </c>
+      <c r="M75" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>559</v>
+      </c>
+      <c r="O75" s="3">
+        <v>449</v>
+      </c>
+      <c r="P75" s="3">
+        <v>1008</v>
+      </c>
+      <c r="Q75" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>308755</v>
+      </c>
+      <c r="S75" s="3">
+        <v>299338</v>
+      </c>
+      <c r="T75" s="3">
+        <v>608093</v>
+      </c>
+      <c r="U75" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>8584</v>
+      </c>
+      <c r="W75" s="3">
+        <v>7576</v>
+      </c>
+      <c r="X75" s="3">
+        <v>16160</v>
+      </c>
+      <c r="Y75" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>6090</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>5190</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>11280</v>
+      </c>
+      <c r="AC75" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
+      <c r="A76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="3">
+        <v>951889</v>
+      </c>
+      <c r="C76" s="3">
+        <v>26414</v>
+      </c>
+      <c r="D76" s="3">
+        <v>15955</v>
+      </c>
+      <c r="F76" s="3">
+        <v>52805</v>
+      </c>
+      <c r="G76" s="3">
+        <v>47055</v>
+      </c>
+      <c r="H76" s="3">
+        <v>99860</v>
+      </c>
+      <c r="I76" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1457</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1087</v>
+      </c>
+      <c r="L76" s="3">
+        <v>2544</v>
+      </c>
+      <c r="M76" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
+        <v>1094</v>
+      </c>
+      <c r="O76" s="3">
+        <v>914</v>
+      </c>
+      <c r="P76" s="3">
+        <v>2008</v>
+      </c>
+      <c r="Q76" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
+        <v>466708</v>
+      </c>
+      <c r="S76" s="3">
+        <v>385321</v>
+      </c>
+      <c r="T76" s="3">
+        <v>852029</v>
+      </c>
+      <c r="U76" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>13214</v>
+      </c>
+      <c r="W76" s="3">
+        <v>10656</v>
+      </c>
+      <c r="X76" s="3">
+        <v>23870</v>
+      </c>
+      <c r="Y76" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>7915</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>6032</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>13947</v>
+      </c>
+      <c r="AC76" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF76" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33">
+      <c r="A77" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="3">
+        <v>304193</v>
+      </c>
+      <c r="C77" s="3">
+        <v>9821</v>
+      </c>
+      <c r="D77" s="3">
+        <v>4626</v>
+      </c>
+      <c r="F77" s="3">
+        <v>12374</v>
+      </c>
+      <c r="G77" s="3">
+        <v>10034</v>
+      </c>
+      <c r="H77" s="3">
+        <v>22408</v>
+      </c>
+      <c r="I77" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <v>557</v>
+      </c>
+      <c r="K77" s="3">
+        <v>513</v>
+      </c>
+      <c r="L77" s="3">
+        <v>1070</v>
+      </c>
+      <c r="M77" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>353</v>
+      </c>
+      <c r="O77" s="3">
+        <v>335</v>
+      </c>
+      <c r="P77" s="3">
+        <v>688</v>
+      </c>
+      <c r="Q77" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>145830</v>
+      </c>
+      <c r="S77" s="3">
+        <v>135955</v>
+      </c>
+      <c r="T77" s="3">
+        <v>281785</v>
+      </c>
+      <c r="U77" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>4614</v>
+      </c>
+      <c r="W77" s="3">
+        <v>4137</v>
+      </c>
+      <c r="X77" s="3">
+        <v>8751</v>
+      </c>
+      <c r="Y77" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>2171</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>1767</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>3938</v>
+      </c>
+      <c r="AC77" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG77" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33">
+      <c r="A78" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2248220</v>
+      </c>
+      <c r="C78" s="3">
+        <v>127263</v>
+      </c>
+      <c r="D78" s="3">
+        <v>67151</v>
+      </c>
+      <c r="F78" s="3">
+        <v>89870</v>
+      </c>
+      <c r="G78" s="3">
+        <v>83475</v>
+      </c>
+      <c r="H78" s="3">
+        <v>173345</v>
+      </c>
+      <c r="I78" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
+        <v>4661</v>
+      </c>
+      <c r="K78" s="3">
+        <v>4405</v>
+      </c>
+      <c r="L78" s="3">
+        <v>9066</v>
+      </c>
+      <c r="M78" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="3">
+        <v>3143</v>
+      </c>
+      <c r="O78" s="3">
+        <v>2511</v>
+      </c>
+      <c r="P78" s="3">
+        <v>5654</v>
+      </c>
+      <c r="Q78" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="3">
+        <v>1051655</v>
+      </c>
+      <c r="S78" s="3">
+        <v>1023220</v>
+      </c>
+      <c r="T78" s="3">
+        <v>2074875</v>
+      </c>
+      <c r="U78" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="3">
+        <v>61013</v>
+      </c>
+      <c r="W78" s="3">
+        <v>57184</v>
+      </c>
+      <c r="X78" s="3">
+        <v>118197</v>
+      </c>
+      <c r="Y78" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="3">
+        <v>31924</v>
+      </c>
+      <c r="AA78" s="3">
+        <v>29573</v>
+      </c>
+      <c r="AB78" s="3">
+        <v>61497</v>
+      </c>
+      <c r="AC78" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF78" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG78" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33">
+      <c r="A79" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="3">
+        <v>878987</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F79" s="3">
+        <v>36448</v>
+      </c>
+      <c r="G79" s="3">
+        <v>21501</v>
+      </c>
+      <c r="H79" s="3">
+        <v>57949</v>
+      </c>
+      <c r="I79" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M79" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z74" s="3" t="s">
+      <c r="N79" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AA74" s="3" t="s">
+      <c r="O79" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AB74" s="3">
-        <v>1592</v>
-      </c>
-      <c r="AC74" s="5" t="e">
+      <c r="P79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q79" s="5" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="75" spans="1:29">
-      <c r="A75" t="s">
-        <v>141</v>
-      </c>
-      <c r="B75" s="3">
-        <v>656932</v>
-      </c>
-      <c r="C75" s="3">
-        <v>17720</v>
-      </c>
-      <c r="D75" s="3">
-        <v>12288</v>
-      </c>
-      <c r="F75" s="3">
-        <v>30724</v>
-      </c>
-      <c r="G75" s="3">
-        <v>18115</v>
-      </c>
-      <c r="H75" s="3">
-        <v>48839</v>
-      </c>
-      <c r="I75" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="3">
-        <v>798</v>
-      </c>
-      <c r="K75" s="3">
-        <v>762</v>
-      </c>
-      <c r="L75" s="3">
-        <v>1560</v>
-      </c>
-      <c r="M75" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N75" s="3">
-        <v>559</v>
-      </c>
-      <c r="O75" s="3">
-        <v>449</v>
-      </c>
-      <c r="P75" s="3">
-        <v>1008</v>
-      </c>
-      <c r="Q75" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R75" s="3">
-        <v>308755</v>
-      </c>
-      <c r="S75" s="3">
-        <v>299338</v>
-      </c>
-      <c r="T75" s="3">
-        <v>608093</v>
-      </c>
-      <c r="U75" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V75" s="3">
-        <v>8584</v>
-      </c>
-      <c r="W75" s="3">
-        <v>7576</v>
-      </c>
-      <c r="X75" s="3">
-        <v>16160</v>
-      </c>
-      <c r="Y75" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z75" s="3">
-        <v>6090</v>
-      </c>
-      <c r="AA75" s="3">
-        <v>5190</v>
-      </c>
-      <c r="AB75" s="3">
-        <v>11280</v>
-      </c>
-      <c r="AC75" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29">
-      <c r="A76" t="s">
-        <v>142</v>
-      </c>
-      <c r="B76" s="3">
-        <v>951889</v>
-      </c>
-      <c r="C76" s="3">
-        <v>26414</v>
-      </c>
-      <c r="D76" s="3">
-        <v>15955</v>
-      </c>
-      <c r="F76" s="3">
-        <v>52805</v>
-      </c>
-      <c r="G76" s="3">
-        <v>47055</v>
-      </c>
-      <c r="H76" s="3">
-        <v>99860</v>
-      </c>
-      <c r="I76" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1457</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1087</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2544</v>
-      </c>
-      <c r="M76" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1094</v>
-      </c>
-      <c r="O76" s="3">
-        <v>914</v>
-      </c>
-      <c r="P76" s="3">
-        <v>2008</v>
-      </c>
-      <c r="Q76" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R76" s="3">
-        <v>466708</v>
-      </c>
-      <c r="S76" s="3">
-        <v>385321</v>
-      </c>
-      <c r="T76" s="3">
-        <v>852029</v>
-      </c>
-      <c r="U76" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V76" s="3">
-        <v>13214</v>
-      </c>
-      <c r="W76" s="3">
-        <v>10656</v>
-      </c>
-      <c r="X76" s="3">
-        <v>23870</v>
-      </c>
-      <c r="Y76" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>7915</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>6032</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>13947</v>
-      </c>
-      <c r="AC76" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29">
-      <c r="A77" t="s">
-        <v>143</v>
-      </c>
-      <c r="B77" s="3">
-        <v>304193</v>
-      </c>
-      <c r="C77" s="3">
-        <v>9821</v>
-      </c>
-      <c r="D77" s="3">
-        <v>4626</v>
-      </c>
-      <c r="F77" s="3">
-        <v>12374</v>
-      </c>
-      <c r="G77" s="3">
-        <v>10034</v>
-      </c>
-      <c r="H77" s="3">
-        <v>22408</v>
-      </c>
-      <c r="I77" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="3">
-        <v>557</v>
-      </c>
-      <c r="K77" s="3">
-        <v>513</v>
-      </c>
-      <c r="L77" s="3">
-        <v>1070</v>
-      </c>
-      <c r="M77" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N77" s="3">
-        <v>353</v>
-      </c>
-      <c r="O77" s="3">
-        <v>335</v>
-      </c>
-      <c r="P77" s="3">
-        <v>688</v>
-      </c>
-      <c r="Q77" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R77" s="3">
-        <v>145830</v>
-      </c>
-      <c r="S77" s="3">
-        <v>135955</v>
-      </c>
-      <c r="T77" s="3">
-        <v>281785</v>
-      </c>
-      <c r="U77" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V77" s="3">
-        <v>4614</v>
-      </c>
-      <c r="W77" s="3">
-        <v>4137</v>
-      </c>
-      <c r="X77" s="3">
-        <v>8751</v>
-      </c>
-      <c r="Y77" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z77" s="3">
-        <v>2171</v>
-      </c>
-      <c r="AA77" s="3">
-        <v>1767</v>
-      </c>
-      <c r="AB77" s="3">
-        <v>3938</v>
-      </c>
-      <c r="AC77" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29">
-      <c r="A78" t="s">
-        <v>144</v>
-      </c>
-      <c r="B78" s="3">
-        <v>2248220</v>
-      </c>
-      <c r="C78" s="3">
-        <v>127263</v>
-      </c>
-      <c r="D78" s="3">
-        <v>67151</v>
-      </c>
-      <c r="F78" s="3">
-        <v>89870</v>
-      </c>
-      <c r="G78" s="3">
-        <v>83475</v>
-      </c>
-      <c r="H78" s="3">
-        <v>173345</v>
-      </c>
-      <c r="I78" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="3">
-        <v>4661</v>
-      </c>
-      <c r="K78" s="3">
-        <v>4405</v>
-      </c>
-      <c r="L78" s="3">
-        <v>9066</v>
-      </c>
-      <c r="M78" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N78" s="3">
-        <v>3143</v>
-      </c>
-      <c r="O78" s="3">
-        <v>2511</v>
-      </c>
-      <c r="P78" s="3">
-        <v>5654</v>
-      </c>
-      <c r="Q78" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R78" s="3">
-        <v>1051655</v>
-      </c>
-      <c r="S78" s="3">
-        <v>1023220</v>
-      </c>
-      <c r="T78" s="3">
-        <v>2074875</v>
-      </c>
-      <c r="U78" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V78" s="3">
-        <v>61013</v>
-      </c>
-      <c r="W78" s="3">
-        <v>57184</v>
-      </c>
-      <c r="X78" s="3">
-        <v>118197</v>
-      </c>
-      <c r="Y78" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z78" s="3">
-        <v>31924</v>
-      </c>
-      <c r="AA78" s="3">
-        <v>29573</v>
-      </c>
-      <c r="AB78" s="3">
-        <v>61497</v>
-      </c>
-      <c r="AC78" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29">
-      <c r="A79" t="s">
-        <v>145</v>
-      </c>
-      <c r="B79" s="3">
-        <v>878987</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F79" s="3">
-        <v>36448</v>
-      </c>
-      <c r="G79" s="3">
-        <v>21501</v>
-      </c>
-      <c r="H79" s="3">
-        <v>57949</v>
-      </c>
-      <c r="I79" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="M79" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="O79" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="P79" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q79" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="R79" s="3">
         <v>429556</v>
       </c>
@@ -9794,7 +10737,7 @@
         <v>821038</v>
       </c>
       <c r="U79" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V79" s="3" t="s">
@@ -9807,2007 +10750,2271 @@
         <v>173</v>
       </c>
       <c r="Y79" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC79" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE79" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF79" s="5" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG79" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33">
+      <c r="A80" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1056015</v>
+      </c>
+      <c r="C80" s="3">
+        <v>64563</v>
+      </c>
+      <c r="D80" s="3">
+        <v>30284</v>
+      </c>
+      <c r="F80" s="3">
+        <v>31799</v>
+      </c>
+      <c r="G80" s="3">
+        <v>31021</v>
+      </c>
+      <c r="H80" s="3">
+        <v>62820</v>
+      </c>
+      <c r="I80" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
+        <v>1308</v>
+      </c>
+      <c r="K80" s="3">
+        <v>1296</v>
+      </c>
+      <c r="L80" s="3">
+        <v>2604</v>
+      </c>
+      <c r="M80" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="3">
+        <v>775</v>
+      </c>
+      <c r="O80" s="3">
+        <v>680</v>
+      </c>
+      <c r="P80" s="3">
+        <v>1455</v>
+      </c>
+      <c r="Q80" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="3">
+        <v>506147</v>
+      </c>
+      <c r="S80" s="3">
+        <v>487048</v>
+      </c>
+      <c r="T80" s="3">
+        <v>993195</v>
+      </c>
+      <c r="U80" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V80" s="3">
+        <v>31535</v>
+      </c>
+      <c r="W80" s="3">
+        <v>30424</v>
+      </c>
+      <c r="X80" s="3">
+        <v>61959</v>
+      </c>
+      <c r="Y80" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z80" s="3">
+        <v>15108</v>
+      </c>
+      <c r="AA80" s="3">
+        <v>13721</v>
+      </c>
+      <c r="AB80" s="3">
+        <v>28829</v>
+      </c>
+      <c r="AC80" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE80" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF80" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG80" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33">
+      <c r="A81" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1007269</v>
+      </c>
+      <c r="C81" s="3">
+        <v>37616</v>
+      </c>
+      <c r="D81" s="3">
+        <v>20215</v>
+      </c>
+      <c r="F81" s="3">
+        <v>77664</v>
+      </c>
+      <c r="G81" s="3">
+        <v>66139</v>
+      </c>
+      <c r="H81" s="3">
+        <v>143803</v>
+      </c>
+      <c r="I81" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2969</v>
+      </c>
+      <c r="K81" s="3">
+        <v>3147</v>
+      </c>
+      <c r="L81" s="3">
+        <v>6116</v>
+      </c>
+      <c r="M81" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>1980</v>
+      </c>
+      <c r="O81" s="3">
+        <v>1616</v>
+      </c>
+      <c r="P81" s="3">
+        <v>3596</v>
+      </c>
+      <c r="Q81" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>448000</v>
+      </c>
+      <c r="S81" s="3">
+        <v>415466</v>
+      </c>
+      <c r="T81" s="3">
+        <v>863466</v>
+      </c>
+      <c r="U81" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>16476</v>
+      </c>
+      <c r="W81" s="3">
+        <v>15024</v>
+      </c>
+      <c r="X81" s="3">
+        <v>31500</v>
+      </c>
+      <c r="Y81" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>8704</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>7915</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>16619</v>
+      </c>
+      <c r="AC81" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE81" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF81" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG81" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33">
+      <c r="A82" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1118549</v>
+      </c>
+      <c r="C82" s="3">
+        <v>35683</v>
+      </c>
+      <c r="D82" s="3">
+        <v>18347</v>
+      </c>
+      <c r="F82" s="3">
+        <v>164474</v>
+      </c>
+      <c r="G82" s="3">
+        <v>125806</v>
+      </c>
+      <c r="H82" s="3">
+        <v>290280</v>
+      </c>
+      <c r="I82" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
+        <v>3546</v>
+      </c>
+      <c r="K82" s="3">
+        <v>3437</v>
+      </c>
+      <c r="L82" s="3">
+        <v>6983</v>
+      </c>
+      <c r="M82" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="3">
+        <v>2645</v>
+      </c>
+      <c r="O82" s="3">
+        <v>2225</v>
+      </c>
+      <c r="P82" s="3">
+        <v>4870</v>
+      </c>
+      <c r="Q82" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R82" s="3">
+        <v>447940</v>
+      </c>
+      <c r="S82" s="3">
+        <v>380329</v>
+      </c>
+      <c r="T82" s="3">
+        <v>828269</v>
+      </c>
+      <c r="U82" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V82" s="3">
+        <v>14953</v>
+      </c>
+      <c r="W82" s="3">
+        <v>13747</v>
+      </c>
+      <c r="X82" s="3">
+        <v>28700</v>
+      </c>
+      <c r="Y82" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z82" s="3">
+        <v>7221</v>
+      </c>
+      <c r="AA82" s="3">
+        <v>6256</v>
+      </c>
+      <c r="AB82" s="3">
+        <v>13477</v>
+      </c>
+      <c r="AC82" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE82" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF82" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG82" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33">
+      <c r="A83" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" s="3">
+        <v>101372</v>
+      </c>
+      <c r="C83" s="3">
+        <v>3893</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1998</v>
+      </c>
+      <c r="F83" s="3">
+        <v>32998</v>
+      </c>
+      <c r="G83" s="3">
+        <v>21112</v>
+      </c>
+      <c r="H83" s="3">
+        <v>54110</v>
+      </c>
+      <c r="I83" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1023</v>
+      </c>
+      <c r="K83" s="3">
+        <v>950</v>
+      </c>
+      <c r="L83" s="3">
+        <v>1973</v>
+      </c>
+      <c r="M83" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>653</v>
+      </c>
+      <c r="O83" s="3">
+        <v>383</v>
+      </c>
+      <c r="P83" s="3">
+        <v>1036</v>
+      </c>
+      <c r="Q83" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>26923</v>
+      </c>
+      <c r="S83" s="3">
+        <v>20339</v>
+      </c>
+      <c r="T83" s="3">
+        <v>47262</v>
+      </c>
+      <c r="U83" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>974</v>
+      </c>
+      <c r="W83" s="3">
+        <v>946</v>
+      </c>
+      <c r="X83" s="3">
+        <v>1920</v>
+      </c>
+      <c r="Y83" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>374</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>588</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>962</v>
+      </c>
+      <c r="AC83" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE83" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF83" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG83" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33">
+      <c r="A84" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="3">
+        <v>833940</v>
+      </c>
+      <c r="C84" s="3">
+        <v>28369</v>
+      </c>
+      <c r="D84" s="3">
+        <v>19365</v>
+      </c>
+      <c r="F84" s="3">
+        <v>49691</v>
+      </c>
+      <c r="G84" s="3">
+        <v>35335</v>
+      </c>
+      <c r="H84" s="3">
+        <v>85026</v>
+      </c>
+      <c r="I84" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="3">
+        <v>1344</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1240</v>
+      </c>
+      <c r="L84" s="3">
+        <v>2584</v>
+      </c>
+      <c r="M84" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>1090</v>
+      </c>
+      <c r="O84" s="3">
+        <v>882</v>
+      </c>
+      <c r="P84" s="3">
+        <v>1972</v>
+      </c>
+      <c r="Q84" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>394173</v>
+      </c>
+      <c r="S84" s="3">
+        <v>354741</v>
+      </c>
+      <c r="T84" s="3">
+        <v>748914</v>
+      </c>
+      <c r="U84" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>13781</v>
+      </c>
+      <c r="W84" s="3">
+        <v>12004</v>
+      </c>
+      <c r="X84" s="3">
+        <v>25785</v>
+      </c>
+      <c r="Y84" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>9317</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>8076</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>17393</v>
+      </c>
+      <c r="AC84" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE84" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF84" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG84" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33">
+      <c r="A85" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="3">
+        <v>10370632</v>
+      </c>
+      <c r="C85" s="3">
+        <v>382231</v>
+      </c>
+      <c r="D85" s="3">
+        <v>210352</v>
+      </c>
+      <c r="F85" s="3">
+        <v>756548</v>
+      </c>
+      <c r="G85" s="3">
+        <v>574897</v>
+      </c>
+      <c r="H85" s="3">
+        <v>1361743</v>
+      </c>
+      <c r="I85" s="5">
+        <f t="shared" si="9"/>
+        <v>-30298</v>
+      </c>
+      <c r="J85" s="3">
+        <v>20790</v>
+      </c>
+      <c r="K85" s="3">
+        <v>19479</v>
+      </c>
+      <c r="L85" s="3">
+        <v>41217</v>
+      </c>
+      <c r="M85" s="5">
+        <f t="shared" si="10"/>
+        <v>-948</v>
+      </c>
+      <c r="N85" s="3">
+        <v>14256</v>
+      </c>
+      <c r="O85" s="3">
+        <v>11657</v>
+      </c>
+      <c r="P85" s="3">
+        <v>26453</v>
+      </c>
+      <c r="Q85" s="5">
+        <f t="shared" si="11"/>
+        <v>-540</v>
+      </c>
+      <c r="R85" s="3">
+        <v>4726723</v>
+      </c>
+      <c r="S85" s="3">
+        <v>4282166</v>
+      </c>
+      <c r="T85" s="3">
+        <v>9008889</v>
+      </c>
+      <c r="U85" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>177739</v>
+      </c>
+      <c r="W85" s="3">
+        <v>160165</v>
+      </c>
+      <c r="X85" s="3">
+        <v>341014</v>
+      </c>
+      <c r="Y85" s="5">
+        <f t="shared" si="13"/>
+        <v>-3110</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>96602</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>85705</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>183899</v>
+      </c>
+      <c r="AC85" s="5">
+        <f t="shared" si="14"/>
+        <v>-1592</v>
+      </c>
+      <c r="AE85" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG85" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33">
+      <c r="A86" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="3">
+        <v>126688</v>
+      </c>
+      <c r="C86" s="3">
+        <v>6918</v>
+      </c>
+      <c r="D86" s="3">
+        <v>3056</v>
+      </c>
+      <c r="F86" s="3">
+        <v>21239</v>
+      </c>
+      <c r="G86" s="3">
+        <v>15320</v>
+      </c>
+      <c r="H86" s="3">
+        <v>36559</v>
+      </c>
+      <c r="I86" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="3">
+        <v>1084</v>
+      </c>
+      <c r="K86" s="3">
+        <v>970</v>
+      </c>
+      <c r="L86" s="3">
+        <v>2054</v>
+      </c>
+      <c r="M86" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>727</v>
+      </c>
+      <c r="O86" s="3">
+        <v>494</v>
+      </c>
+      <c r="P86" s="3">
+        <v>1221</v>
+      </c>
+      <c r="Q86" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>55249</v>
+      </c>
+      <c r="S86" s="3">
+        <v>34880</v>
+      </c>
+      <c r="T86" s="3">
+        <v>90129</v>
+      </c>
+      <c r="U86" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>2527</v>
+      </c>
+      <c r="W86" s="3">
+        <v>2337</v>
+      </c>
+      <c r="X86" s="3">
+        <v>4864</v>
+      </c>
+      <c r="Y86" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>1005</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>830</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>1835</v>
+      </c>
+      <c r="AC86" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE86" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF86" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG86" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33">
+      <c r="A87" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" s="3">
+        <v>719116</v>
+      </c>
+      <c r="C87" s="3">
+        <v>36794</v>
+      </c>
+      <c r="D87" s="3">
+        <v>24416</v>
+      </c>
+      <c r="F87" s="3">
+        <v>40199</v>
+      </c>
+      <c r="G87" s="3">
+        <v>36499</v>
+      </c>
+      <c r="H87" s="3">
+        <v>76698</v>
+      </c>
+      <c r="I87" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="3">
+        <v>1561</v>
+      </c>
+      <c r="K87" s="3">
+        <v>1531</v>
+      </c>
+      <c r="L87" s="3">
+        <v>3092</v>
+      </c>
+      <c r="M87" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>1607</v>
+      </c>
+      <c r="O87" s="3">
+        <v>1170</v>
+      </c>
+      <c r="P87" s="3">
+        <v>2777</v>
+      </c>
+      <c r="Q87" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>340353</v>
+      </c>
+      <c r="S87" s="3">
+        <v>302065</v>
+      </c>
+      <c r="T87" s="3">
+        <v>642418</v>
+      </c>
+      <c r="U87" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>17236</v>
+      </c>
+      <c r="W87" s="3">
+        <v>16466</v>
+      </c>
+      <c r="X87" s="3">
+        <v>33702</v>
+      </c>
+      <c r="Y87" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>11431</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>10208</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>21639</v>
+      </c>
+      <c r="AC87" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE87" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF87" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG87" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33">
+      <c r="A88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="3">
+        <v>824266</v>
+      </c>
+      <c r="C88" s="3">
+        <v>26318</v>
+      </c>
+      <c r="D88" s="3">
+        <v>19270</v>
+      </c>
+      <c r="F88" s="3">
+        <v>42688</v>
+      </c>
+      <c r="G88" s="3">
+        <v>28428</v>
+      </c>
+      <c r="H88" s="3">
+        <v>71116</v>
+      </c>
+      <c r="I88" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
+        <v>1282</v>
+      </c>
+      <c r="K88" s="3">
+        <v>1242</v>
+      </c>
+      <c r="L88" s="3">
+        <v>2524</v>
+      </c>
+      <c r="M88" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>1202</v>
+      </c>
+      <c r="O88" s="3">
+        <v>869</v>
+      </c>
+      <c r="P88" s="3">
+        <v>2071</v>
+      </c>
+      <c r="Q88" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>390780</v>
+      </c>
+      <c r="S88" s="3">
+        <v>362370</v>
+      </c>
+      <c r="T88" s="3">
+        <v>753150</v>
+      </c>
+      <c r="U88" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>12522</v>
+      </c>
+      <c r="W88" s="3">
+        <v>11272</v>
+      </c>
+      <c r="X88" s="3">
+        <v>23794</v>
+      </c>
+      <c r="Y88" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>8897</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>8302</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>17199</v>
+      </c>
+      <c r="AC88" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE88" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF88" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG88" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33">
+      <c r="A89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="3">
+        <v>580051</v>
+      </c>
+      <c r="C89" s="3">
+        <v>24228</v>
+      </c>
+      <c r="D89" s="3">
+        <v>20581</v>
+      </c>
+      <c r="F89" s="3">
+        <v>42062</v>
+      </c>
+      <c r="G89" s="3">
+        <v>38810</v>
+      </c>
+      <c r="H89" s="3">
+        <v>80872</v>
+      </c>
+      <c r="I89" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1420</v>
+      </c>
+      <c r="K89" s="3">
+        <v>1278</v>
+      </c>
+      <c r="L89" s="3">
+        <v>2698</v>
+      </c>
+      <c r="M89" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>1514</v>
+      </c>
+      <c r="O89" s="3">
+        <v>1061</v>
+      </c>
+      <c r="P89" s="3">
+        <v>2575</v>
+      </c>
+      <c r="Q89" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>266000</v>
+      </c>
+      <c r="S89" s="3">
+        <v>233179</v>
+      </c>
+      <c r="T89" s="3">
+        <v>499179</v>
+      </c>
+      <c r="U89" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>11107</v>
+      </c>
+      <c r="W89" s="3">
+        <v>10423</v>
+      </c>
+      <c r="X89" s="3">
+        <v>21530</v>
+      </c>
+      <c r="Y89" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>9631</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>8375</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>18006</v>
+      </c>
+      <c r="AC89" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE89" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF89" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG89" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33">
+      <c r="A90" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="3">
+        <v>252210</v>
+      </c>
+      <c r="C90" s="3">
+        <v>8654</v>
+      </c>
+      <c r="D90" s="3">
+        <v>4256</v>
+      </c>
+      <c r="F90" s="3">
+        <v>65400</v>
+      </c>
+      <c r="G90" s="3">
+        <v>14276</v>
+      </c>
+      <c r="H90" s="3">
+        <v>79676</v>
+      </c>
+      <c r="I90" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
+        <v>1065</v>
+      </c>
+      <c r="K90" s="3">
+        <v>1084</v>
+      </c>
+      <c r="L90" s="3">
+        <v>2149</v>
+      </c>
+      <c r="M90" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="3">
+        <v>923</v>
+      </c>
+      <c r="O90" s="3">
+        <v>434</v>
+      </c>
+      <c r="P90" s="3">
+        <v>1357</v>
+      </c>
+      <c r="Q90" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R90" s="3">
+        <v>95394</v>
+      </c>
+      <c r="S90" s="3">
+        <v>77140</v>
+      </c>
+      <c r="T90" s="3">
+        <v>172534</v>
+      </c>
+      <c r="U90" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V90" s="3">
+        <v>3435</v>
+      </c>
+      <c r="W90" s="3">
+        <v>3070</v>
+      </c>
+      <c r="X90" s="3">
+        <v>6505</v>
+      </c>
+      <c r="Y90" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z90" s="3">
+        <v>1640</v>
+      </c>
+      <c r="AA90" s="3">
+        <v>1259</v>
+      </c>
+      <c r="AB90" s="3">
+        <v>2899</v>
+      </c>
+      <c r="AC90" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE90" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF90" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG90" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33">
+      <c r="A91" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1685921</v>
+      </c>
+      <c r="C91" s="3">
+        <v>94149</v>
+      </c>
+      <c r="D91" s="3">
+        <v>71573</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H91" s="3">
+        <v>89733</v>
+      </c>
+      <c r="I91" s="5" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J91" s="3">
+        <v>1593</v>
+      </c>
+      <c r="K91" s="3">
+        <v>1595</v>
+      </c>
+      <c r="L91" s="3">
+        <v>3188</v>
+      </c>
+      <c r="M91" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>1658</v>
+      </c>
+      <c r="O91" s="3">
+        <v>1358</v>
+      </c>
+      <c r="P91" s="3">
+        <v>3016</v>
+      </c>
+      <c r="Q91" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T91" s="3">
+        <v>1596188</v>
+      </c>
+      <c r="U91" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V91" s="3">
+        <v>46794</v>
+      </c>
+      <c r="W91" s="3">
+        <v>44167</v>
+      </c>
+      <c r="X91" s="3">
+        <v>90961</v>
+      </c>
+      <c r="Y91" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>35292</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>33265</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>68557</v>
+      </c>
+      <c r="AC91" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE91" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF91" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG91" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33">
+      <c r="A92" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2397571</v>
+      </c>
+      <c r="C92" s="3">
+        <v>125307</v>
+      </c>
+      <c r="D92" s="3">
+        <v>77509</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H92" s="3">
+        <v>183916</v>
+      </c>
+      <c r="I92" s="5" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L92" s="3">
+        <v>8399</v>
+      </c>
+      <c r="M92" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z79" s="3" t="s">
+      <c r="N92" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AA79" s="3" t="s">
+      <c r="O92" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AB79" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC79" s="5" t="e">
+      <c r="P92" s="3">
+        <v>6523</v>
+      </c>
+      <c r="Q92" s="5" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="80" spans="1:29">
-      <c r="A80" t="s">
-        <v>146</v>
-      </c>
-      <c r="B80" s="3">
-        <v>1056015</v>
-      </c>
-      <c r="C80" s="3">
-        <v>64563</v>
-      </c>
-      <c r="D80" s="3">
-        <v>30284</v>
-      </c>
-      <c r="F80" s="3">
-        <v>31799</v>
-      </c>
-      <c r="G80" s="3">
-        <v>31021</v>
-      </c>
-      <c r="H80" s="3">
-        <v>62820</v>
-      </c>
-      <c r="I80" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="3">
-        <v>1308</v>
-      </c>
-      <c r="K80" s="3">
-        <v>1296</v>
-      </c>
-      <c r="L80" s="3">
-        <v>2604</v>
-      </c>
-      <c r="M80" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N80" s="3">
-        <v>775</v>
-      </c>
-      <c r="O80" s="3">
-        <v>680</v>
-      </c>
-      <c r="P80" s="3">
-        <v>1455</v>
-      </c>
-      <c r="Q80" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R80" s="3">
-        <v>506147</v>
-      </c>
-      <c r="S80" s="3">
-        <v>487048</v>
-      </c>
-      <c r="T80" s="3">
-        <v>993195</v>
-      </c>
-      <c r="U80" s="5">
+      <c r="R92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T92" s="3">
+        <v>2213655</v>
+      </c>
+      <c r="U92" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="W92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="X92" s="3">
+        <v>116908</v>
+      </c>
+      <c r="Y92" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>70986</v>
+      </c>
+      <c r="AC92" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE92" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF92" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG92" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33">
+      <c r="A93" t="s">
+        <v>158</v>
+      </c>
+      <c r="B93" s="3">
+        <v>258516</v>
+      </c>
+      <c r="C93" s="3">
+        <v>8957</v>
+      </c>
+      <c r="D93" s="3">
+        <v>6565</v>
+      </c>
+      <c r="F93" s="3">
+        <v>5162</v>
+      </c>
+      <c r="G93" s="3">
+        <v>4360</v>
+      </c>
+      <c r="H93" s="3">
+        <v>9522</v>
+      </c>
+      <c r="I93" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V80" s="3">
-        <v>31535</v>
-      </c>
-      <c r="W80" s="3">
-        <v>30424</v>
-      </c>
-      <c r="X80" s="3">
-        <v>61959</v>
-      </c>
-      <c r="Y80" s="5">
+      <c r="J93" s="3">
+        <v>211</v>
+      </c>
+      <c r="K93" s="3">
+        <v>245</v>
+      </c>
+      <c r="L93" s="3">
+        <v>456</v>
+      </c>
+      <c r="M93" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z80" s="3">
-        <v>15108</v>
-      </c>
-      <c r="AA80" s="3">
-        <v>13721</v>
-      </c>
-      <c r="AB80" s="3">
-        <v>28829</v>
-      </c>
-      <c r="AC80" s="5">
+      <c r="N93" s="3">
+        <v>206</v>
+      </c>
+      <c r="O93" s="3">
+        <v>156</v>
+      </c>
+      <c r="P93" s="3">
+        <v>362</v>
+      </c>
+      <c r="Q93" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:29">
-      <c r="A81" t="s">
-        <v>147</v>
-      </c>
-      <c r="B81" s="3">
-        <v>1007269</v>
-      </c>
-      <c r="C81" s="3">
-        <v>37616</v>
-      </c>
-      <c r="D81" s="3">
-        <v>20215</v>
-      </c>
-      <c r="F81" s="3">
-        <v>77664</v>
-      </c>
-      <c r="G81" s="3">
-        <v>66139</v>
-      </c>
-      <c r="H81" s="3">
-        <v>143803</v>
-      </c>
-      <c r="I81" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>2969</v>
-      </c>
-      <c r="K81" s="3">
-        <v>3147</v>
-      </c>
-      <c r="L81" s="3">
-        <v>6116</v>
-      </c>
-      <c r="M81" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>1980</v>
-      </c>
-      <c r="O81" s="3">
-        <v>1616</v>
-      </c>
-      <c r="P81" s="3">
-        <v>3596</v>
-      </c>
-      <c r="Q81" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>448000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>415466</v>
-      </c>
-      <c r="T81" s="3">
-        <v>863466</v>
-      </c>
-      <c r="U81" s="5">
+      <c r="R93" s="3">
+        <v>127514</v>
+      </c>
+      <c r="S93" s="3">
+        <v>121480</v>
+      </c>
+      <c r="T93" s="3">
+        <v>248994</v>
+      </c>
+      <c r="U93" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>4257</v>
+      </c>
+      <c r="W93" s="3">
+        <v>4244</v>
+      </c>
+      <c r="X93" s="3">
+        <v>8501</v>
+      </c>
+      <c r="Y93" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>3014</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>3189</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>6203</v>
+      </c>
+      <c r="AC93" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE93" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF93" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG93" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33">
+      <c r="A94" t="s">
+        <v>159</v>
+      </c>
+      <c r="B94" s="3">
+        <v>36695</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V81" s="3">
-        <v>16476</v>
-      </c>
-      <c r="W81" s="3">
-        <v>15024</v>
-      </c>
-      <c r="X81" s="3">
-        <v>31500</v>
-      </c>
-      <c r="Y81" s="5">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z81" s="3">
-        <v>8704</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>7915</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>16619</v>
-      </c>
-      <c r="AC81" s="5">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:29">
-      <c r="A82" t="s">
-        <v>174</v>
-      </c>
-      <c r="B82" s="3">
-        <v>1118549</v>
-      </c>
-      <c r="C82" s="3">
-        <v>35683</v>
-      </c>
-      <c r="D82" s="3">
-        <v>18347</v>
-      </c>
-      <c r="F82" s="3">
-        <v>164474</v>
-      </c>
-      <c r="G82" s="3">
-        <v>125806</v>
-      </c>
-      <c r="H82" s="3">
-        <v>290280</v>
-      </c>
-      <c r="I82" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="3">
-        <v>3546</v>
-      </c>
-      <c r="K82" s="3">
-        <v>3437</v>
-      </c>
-      <c r="L82" s="3">
-        <v>6983</v>
-      </c>
-      <c r="M82" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N82" s="3">
-        <v>2645</v>
-      </c>
-      <c r="O82" s="3">
-        <v>2225</v>
-      </c>
-      <c r="P82" s="3">
-        <v>4870</v>
-      </c>
-      <c r="Q82" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R82" s="3">
-        <v>447940</v>
-      </c>
-      <c r="S82" s="3">
-        <v>380329</v>
-      </c>
-      <c r="T82" s="3">
-        <v>828269</v>
-      </c>
-      <c r="U82" s="5">
+      <c r="R94" s="3">
+        <v>27990</v>
+      </c>
+      <c r="S94" s="3">
+        <v>8705</v>
+      </c>
+      <c r="T94" s="3">
+        <v>36695</v>
+      </c>
+      <c r="U94" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y94" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC94" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE94" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF94" s="5" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG94" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33">
+      <c r="A95" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" s="3">
+        <v>6881034</v>
+      </c>
+      <c r="C95" s="3">
+        <v>331325</v>
+      </c>
+      <c r="D95" s="3">
+        <v>227226</v>
+      </c>
+      <c r="F95" s="3">
+        <v>216750</v>
+      </c>
+      <c r="G95" s="3">
+        <v>137693</v>
+      </c>
+      <c r="H95" s="3">
+        <v>628092</v>
+      </c>
+      <c r="I95" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V82" s="3">
-        <v>14953</v>
-      </c>
-      <c r="W82" s="3">
-        <v>13747</v>
-      </c>
-      <c r="X82" s="3">
-        <v>28700</v>
-      </c>
-      <c r="Y82" s="5">
+        <v>-273649</v>
+      </c>
+      <c r="J95" s="3">
+        <v>8216</v>
+      </c>
+      <c r="K95" s="3">
+        <v>7945</v>
+      </c>
+      <c r="L95" s="3">
+        <v>24560</v>
+      </c>
+      <c r="M95" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z82" s="3">
-        <v>7221</v>
-      </c>
-      <c r="AA82" s="3">
-        <v>6256</v>
-      </c>
-      <c r="AB82" s="3">
-        <v>13477</v>
-      </c>
-      <c r="AC82" s="5">
+        <v>-8399</v>
+      </c>
+      <c r="N95" s="3">
+        <v>7837</v>
+      </c>
+      <c r="O95" s="3">
+        <v>5542</v>
+      </c>
+      <c r="P95" s="3">
+        <v>19902</v>
+      </c>
+      <c r="Q95" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29">
-      <c r="A83" t="s">
-        <v>148</v>
-      </c>
-      <c r="B83" s="3">
-        <v>101372</v>
-      </c>
-      <c r="C83" s="3">
-        <v>3893</v>
-      </c>
-      <c r="D83" s="3">
-        <v>1998</v>
-      </c>
-      <c r="F83" s="3">
-        <v>32998</v>
-      </c>
-      <c r="G83" s="3">
-        <v>21112</v>
-      </c>
-      <c r="H83" s="3">
-        <v>54110</v>
-      </c>
-      <c r="I83" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1023</v>
-      </c>
-      <c r="K83" s="3">
-        <v>950</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1973</v>
-      </c>
-      <c r="M83" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>653</v>
-      </c>
-      <c r="O83" s="3">
-        <v>383</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1036</v>
-      </c>
-      <c r="Q83" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>26923</v>
-      </c>
-      <c r="S83" s="3">
-        <v>20339</v>
-      </c>
-      <c r="T83" s="3">
-        <v>47262</v>
-      </c>
-      <c r="U83" s="5">
+        <v>-6523</v>
+      </c>
+      <c r="R95" s="3">
+        <v>1303280</v>
+      </c>
+      <c r="S95" s="3">
+        <v>1139819</v>
+      </c>
+      <c r="T95" s="3">
+        <v>6252942</v>
+      </c>
+      <c r="U95" s="5">
+        <f t="shared" si="12"/>
+        <v>-3809843</v>
+      </c>
+      <c r="V95" s="3">
+        <v>97878</v>
+      </c>
+      <c r="W95" s="3">
+        <v>91979</v>
+      </c>
+      <c r="X95" s="3">
+        <v>306765</v>
+      </c>
+      <c r="Y95" s="5">
+        <f t="shared" si="13"/>
+        <v>-116908</v>
+      </c>
+      <c r="Z95" s="3">
+        <v>70910</v>
+      </c>
+      <c r="AA95" s="3">
+        <v>65428</v>
+      </c>
+      <c r="AB95" s="3">
+        <v>207324</v>
+      </c>
+      <c r="AC95" s="5">
+        <f t="shared" si="14"/>
+        <v>-70986</v>
+      </c>
+      <c r="AE95" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF95" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG95" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33">
+      <c r="A96" t="s">
+        <v>161</v>
+      </c>
+      <c r="B96" s="3">
+        <v>892484</v>
+      </c>
+      <c r="C96" s="3">
+        <v>33169</v>
+      </c>
+      <c r="D96" s="3">
+        <v>23660</v>
+      </c>
+      <c r="F96" s="3">
+        <v>56097</v>
+      </c>
+      <c r="G96" s="3">
+        <v>53397</v>
+      </c>
+      <c r="H96" s="3">
+        <v>109494</v>
+      </c>
+      <c r="I96" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V83" s="3">
-        <v>974</v>
-      </c>
-      <c r="W83" s="3">
-        <v>946</v>
-      </c>
-      <c r="X83" s="3">
-        <v>1920</v>
-      </c>
-      <c r="Y83" s="5">
+      <c r="J96" s="3">
+        <v>2742</v>
+      </c>
+      <c r="K96" s="3">
+        <v>2536</v>
+      </c>
+      <c r="L96" s="3">
+        <v>5278</v>
+      </c>
+      <c r="M96" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z83" s="3">
-        <v>374</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>588</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>962</v>
-      </c>
-      <c r="AC83" s="5">
+      <c r="N96" s="3">
+        <v>2253</v>
+      </c>
+      <c r="O96" s="3">
+        <v>1918</v>
+      </c>
+      <c r="P96" s="3">
+        <v>4171</v>
+      </c>
+      <c r="Q96" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:29">
-      <c r="A84" t="s">
-        <v>149</v>
-      </c>
-      <c r="B84" s="3">
-        <v>833940</v>
-      </c>
-      <c r="C84" s="3">
-        <v>28369</v>
-      </c>
-      <c r="D84" s="3">
-        <v>19365</v>
-      </c>
-      <c r="F84" s="3">
-        <v>49691</v>
-      </c>
-      <c r="G84" s="3">
-        <v>35335</v>
-      </c>
-      <c r="H84" s="3">
-        <v>85026</v>
-      </c>
-      <c r="I84" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="3">
-        <v>1344</v>
-      </c>
-      <c r="K84" s="3">
-        <v>1240</v>
-      </c>
-      <c r="L84" s="3">
-        <v>2584</v>
-      </c>
-      <c r="M84" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N84" s="3">
-        <v>1090</v>
-      </c>
-      <c r="O84" s="3">
-        <v>882</v>
-      </c>
-      <c r="P84" s="3">
-        <v>1972</v>
-      </c>
-      <c r="Q84" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R84" s="3">
-        <v>394173</v>
-      </c>
-      <c r="S84" s="3">
-        <v>354741</v>
-      </c>
-      <c r="T84" s="3">
-        <v>748914</v>
-      </c>
-      <c r="U84" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V84" s="3">
-        <v>13781</v>
-      </c>
-      <c r="W84" s="3">
-        <v>12004</v>
-      </c>
-      <c r="X84" s="3">
-        <v>25785</v>
-      </c>
-      <c r="Y84" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z84" s="3">
-        <v>9317</v>
-      </c>
-      <c r="AA84" s="3">
-        <v>8076</v>
-      </c>
-      <c r="AB84" s="3">
-        <v>17393</v>
-      </c>
-      <c r="AC84" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29">
-      <c r="A85" t="s">
-        <v>150</v>
-      </c>
-      <c r="B85" s="3">
-        <v>10370632</v>
-      </c>
-      <c r="C85" s="3">
-        <v>382231</v>
-      </c>
-      <c r="D85" s="3">
-        <v>210352</v>
-      </c>
-      <c r="F85" s="3">
-        <v>756548</v>
-      </c>
-      <c r="G85" s="3">
-        <v>574897</v>
-      </c>
-      <c r="H85" s="3">
-        <v>1361743</v>
-      </c>
-      <c r="I85" s="5">
-        <f t="shared" si="6"/>
-        <v>-30298</v>
-      </c>
-      <c r="J85" s="3">
-        <v>20790</v>
-      </c>
-      <c r="K85" s="3">
-        <v>19479</v>
-      </c>
-      <c r="L85" s="3">
-        <v>41217</v>
-      </c>
-      <c r="M85" s="5">
-        <f t="shared" si="7"/>
-        <v>-948</v>
-      </c>
-      <c r="N85" s="3">
-        <v>14256</v>
-      </c>
-      <c r="O85" s="3">
-        <v>11657</v>
-      </c>
-      <c r="P85" s="3">
-        <v>26453</v>
-      </c>
-      <c r="Q85" s="5">
-        <f t="shared" si="8"/>
-        <v>-540</v>
-      </c>
-      <c r="R85" s="3">
-        <v>4726723</v>
-      </c>
-      <c r="S85" s="3">
-        <v>4282166</v>
-      </c>
-      <c r="T85" s="3">
-        <v>9008889</v>
-      </c>
-      <c r="U85" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V85" s="3">
-        <v>177739</v>
-      </c>
-      <c r="W85" s="3">
-        <v>160165</v>
-      </c>
-      <c r="X85" s="3">
-        <v>341014</v>
-      </c>
-      <c r="Y85" s="5">
-        <f t="shared" si="10"/>
-        <v>-3110</v>
-      </c>
-      <c r="Z85" s="3">
-        <v>96602</v>
-      </c>
-      <c r="AA85" s="3">
-        <v>85705</v>
-      </c>
-      <c r="AB85" s="3">
-        <v>183899</v>
-      </c>
-      <c r="AC85" s="5">
-        <f t="shared" si="11"/>
-        <v>-1592</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29">
-      <c r="A86" t="s">
-        <v>151</v>
-      </c>
-      <c r="B86" s="3">
-        <v>126688</v>
-      </c>
-      <c r="C86" s="3">
-        <v>6918</v>
-      </c>
-      <c r="D86" s="3">
-        <v>3056</v>
-      </c>
-      <c r="F86" s="3">
-        <v>21239</v>
-      </c>
-      <c r="G86" s="3">
-        <v>15320</v>
-      </c>
-      <c r="H86" s="3">
-        <v>36559</v>
-      </c>
-      <c r="I86" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="3">
-        <v>1084</v>
-      </c>
-      <c r="K86" s="3">
-        <v>970</v>
-      </c>
-      <c r="L86" s="3">
-        <v>2054</v>
-      </c>
-      <c r="M86" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N86" s="3">
-        <v>727</v>
-      </c>
-      <c r="O86" s="3">
-        <v>494</v>
-      </c>
-      <c r="P86" s="3">
-        <v>1221</v>
-      </c>
-      <c r="Q86" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R86" s="3">
-        <v>55249</v>
-      </c>
-      <c r="S86" s="3">
-        <v>34880</v>
-      </c>
-      <c r="T86" s="3">
-        <v>90129</v>
-      </c>
-      <c r="U86" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V86" s="3">
-        <v>2527</v>
-      </c>
-      <c r="W86" s="3">
-        <v>2337</v>
-      </c>
-      <c r="X86" s="3">
-        <v>4864</v>
-      </c>
-      <c r="Y86" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z86" s="3">
-        <v>1005</v>
-      </c>
-      <c r="AA86" s="3">
-        <v>830</v>
-      </c>
-      <c r="AB86" s="3">
-        <v>1835</v>
-      </c>
-      <c r="AC86" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29">
-      <c r="A87" t="s">
-        <v>152</v>
-      </c>
-      <c r="B87" s="3">
-        <v>719116</v>
-      </c>
-      <c r="C87" s="3">
-        <v>36794</v>
-      </c>
-      <c r="D87" s="3">
-        <v>24416</v>
-      </c>
-      <c r="F87" s="3">
-        <v>40199</v>
-      </c>
-      <c r="G87" s="3">
-        <v>36499</v>
-      </c>
-      <c r="H87" s="3">
-        <v>76698</v>
-      </c>
-      <c r="I87" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="3">
-        <v>1561</v>
-      </c>
-      <c r="K87" s="3">
-        <v>1531</v>
-      </c>
-      <c r="L87" s="3">
-        <v>3092</v>
-      </c>
-      <c r="M87" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N87" s="3">
-        <v>1607</v>
-      </c>
-      <c r="O87" s="3">
-        <v>1170</v>
-      </c>
-      <c r="P87" s="3">
-        <v>2777</v>
-      </c>
-      <c r="Q87" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R87" s="3">
-        <v>340353</v>
-      </c>
-      <c r="S87" s="3">
-        <v>302065</v>
-      </c>
-      <c r="T87" s="3">
-        <v>642418</v>
-      </c>
-      <c r="U87" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V87" s="3">
-        <v>17236</v>
-      </c>
-      <c r="W87" s="3">
-        <v>16466</v>
-      </c>
-      <c r="X87" s="3">
-        <v>33702</v>
-      </c>
-      <c r="Y87" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z87" s="3">
-        <v>11431</v>
-      </c>
-      <c r="AA87" s="3">
-        <v>10208</v>
-      </c>
-      <c r="AB87" s="3">
-        <v>21639</v>
-      </c>
-      <c r="AC87" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29">
-      <c r="A88" t="s">
-        <v>153</v>
-      </c>
-      <c r="B88" s="3">
-        <v>824266</v>
-      </c>
-      <c r="C88" s="3">
-        <v>26318</v>
-      </c>
-      <c r="D88" s="3">
-        <v>19270</v>
-      </c>
-      <c r="F88" s="3">
-        <v>42688</v>
-      </c>
-      <c r="G88" s="3">
-        <v>28428</v>
-      </c>
-      <c r="H88" s="3">
-        <v>71116</v>
-      </c>
-      <c r="I88" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="3">
-        <v>1282</v>
-      </c>
-      <c r="K88" s="3">
-        <v>1242</v>
-      </c>
-      <c r="L88" s="3">
-        <v>2524</v>
-      </c>
-      <c r="M88" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N88" s="3">
-        <v>1202</v>
-      </c>
-      <c r="O88" s="3">
-        <v>869</v>
-      </c>
-      <c r="P88" s="3">
-        <v>2071</v>
-      </c>
-      <c r="Q88" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R88" s="3">
-        <v>390780</v>
-      </c>
-      <c r="S88" s="3">
-        <v>362370</v>
-      </c>
-      <c r="T88" s="3">
-        <v>753150</v>
-      </c>
-      <c r="U88" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V88" s="3">
-        <v>12522</v>
-      </c>
-      <c r="W88" s="3">
-        <v>11272</v>
-      </c>
-      <c r="X88" s="3">
-        <v>23794</v>
-      </c>
-      <c r="Y88" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z88" s="3">
-        <v>8897</v>
-      </c>
-      <c r="AA88" s="3">
-        <v>8302</v>
-      </c>
-      <c r="AB88" s="3">
-        <v>17199</v>
-      </c>
-      <c r="AC88" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29">
-      <c r="A89" t="s">
-        <v>154</v>
-      </c>
-      <c r="B89" s="3">
-        <v>580051</v>
-      </c>
-      <c r="C89" s="3">
-        <v>24228</v>
-      </c>
-      <c r="D89" s="3">
-        <v>20581</v>
-      </c>
-      <c r="F89" s="3">
-        <v>42062</v>
-      </c>
-      <c r="G89" s="3">
-        <v>38810</v>
-      </c>
-      <c r="H89" s="3">
-        <v>80872</v>
-      </c>
-      <c r="I89" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>1420</v>
-      </c>
-      <c r="K89" s="3">
-        <v>1278</v>
-      </c>
-      <c r="L89" s="3">
-        <v>2698</v>
-      </c>
-      <c r="M89" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>1514</v>
-      </c>
-      <c r="O89" s="3">
-        <v>1061</v>
-      </c>
-      <c r="P89" s="3">
-        <v>2575</v>
-      </c>
-      <c r="Q89" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>266000</v>
-      </c>
-      <c r="S89" s="3">
-        <v>233179</v>
-      </c>
-      <c r="T89" s="3">
-        <v>499179</v>
-      </c>
-      <c r="U89" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>11107</v>
-      </c>
-      <c r="W89" s="3">
-        <v>10423</v>
-      </c>
-      <c r="X89" s="3">
-        <v>21530</v>
-      </c>
-      <c r="Y89" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>9631</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>8375</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>18006</v>
-      </c>
-      <c r="AC89" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29">
-      <c r="A90" t="s">
-        <v>155</v>
-      </c>
-      <c r="B90" s="3">
-        <v>252210</v>
-      </c>
-      <c r="C90" s="3">
-        <v>8654</v>
-      </c>
-      <c r="D90" s="3">
-        <v>4256</v>
-      </c>
-      <c r="F90" s="3">
-        <v>65400</v>
-      </c>
-      <c r="G90" s="3">
-        <v>14276</v>
-      </c>
-      <c r="H90" s="3">
-        <v>79676</v>
-      </c>
-      <c r="I90" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="3">
-        <v>1065</v>
-      </c>
-      <c r="K90" s="3">
-        <v>1084</v>
-      </c>
-      <c r="L90" s="3">
-        <v>2149</v>
-      </c>
-      <c r="M90" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N90" s="3">
-        <v>923</v>
-      </c>
-      <c r="O90" s="3">
-        <v>434</v>
-      </c>
-      <c r="P90" s="3">
-        <v>1357</v>
-      </c>
-      <c r="Q90" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R90" s="3">
-        <v>95394</v>
-      </c>
-      <c r="S90" s="3">
-        <v>77140</v>
-      </c>
-      <c r="T90" s="3">
-        <v>172534</v>
-      </c>
-      <c r="U90" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V90" s="3">
-        <v>3435</v>
-      </c>
-      <c r="W90" s="3">
-        <v>3070</v>
-      </c>
-      <c r="X90" s="3">
-        <v>6505</v>
-      </c>
-      <c r="Y90" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z90" s="3">
-        <v>1640</v>
-      </c>
-      <c r="AA90" s="3">
-        <v>1259</v>
-      </c>
-      <c r="AB90" s="3">
-        <v>2899</v>
-      </c>
-      <c r="AC90" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29">
-      <c r="A91" t="s">
-        <v>156</v>
-      </c>
-      <c r="B91" s="3">
-        <v>1685921</v>
-      </c>
-      <c r="C91" s="3">
-        <v>94149</v>
-      </c>
-      <c r="D91" s="3">
-        <v>71573</v>
-      </c>
-      <c r="F91" s="3" t="s">
+      <c r="R96" s="3">
+        <v>412590</v>
+      </c>
+      <c r="S96" s="3">
+        <v>370400</v>
+      </c>
+      <c r="T96" s="3">
+        <v>782990</v>
+      </c>
+      <c r="U96" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>14577</v>
+      </c>
+      <c r="W96" s="3">
+        <v>13314</v>
+      </c>
+      <c r="X96" s="3">
+        <v>27891</v>
+      </c>
+      <c r="Y96" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>10080</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>9409</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>19489</v>
+      </c>
+      <c r="AC96" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE96" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF96" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG96" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33">
+      <c r="A97" t="s">
+        <v>162</v>
+      </c>
+      <c r="B97" s="3">
+        <v>380605</v>
+      </c>
+      <c r="C97" s="3">
+        <v>9241</v>
+      </c>
+      <c r="D97" s="3">
+        <v>6066</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G97" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H91" s="3">
-        <v>89733</v>
-      </c>
-      <c r="I91" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J91" s="3">
-        <v>1593</v>
-      </c>
-      <c r="K91" s="3">
-        <v>1595</v>
-      </c>
-      <c r="L91" s="3">
-        <v>3188</v>
-      </c>
-      <c r="M91" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>1658</v>
-      </c>
-      <c r="O91" s="3">
-        <v>1358</v>
-      </c>
-      <c r="P91" s="3">
-        <v>3016</v>
-      </c>
-      <c r="Q91" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="T91" s="3">
-        <v>1596188</v>
-      </c>
-      <c r="U91" s="5" t="e">
+      <c r="H97" s="3">
+        <v>39995</v>
+      </c>
+      <c r="I97" s="5" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V91" s="3">
-        <v>46794</v>
-      </c>
-      <c r="W91" s="3">
-        <v>44167</v>
-      </c>
-      <c r="X91" s="3">
-        <v>90961</v>
-      </c>
-      <c r="Y91" s="5">
+      <c r="J97" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L97" s="3">
+        <v>1482</v>
+      </c>
+      <c r="M97" s="5" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>35292</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>33265</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>68557</v>
-      </c>
-      <c r="AC91" s="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P97" s="3">
+        <v>1007</v>
+      </c>
+      <c r="Q97" s="5" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29">
-      <c r="A92" t="s">
-        <v>157</v>
-      </c>
-      <c r="B92" s="3">
-        <v>2397571</v>
-      </c>
-      <c r="C92" s="3">
-        <v>125307</v>
-      </c>
-      <c r="D92" s="3">
-        <v>77509</v>
-      </c>
-      <c r="F92" s="3" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R97" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="S97" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H92" s="3">
-        <v>183916</v>
-      </c>
-      <c r="I92" s="5" t="e">
-        <f t="shared" si="6"/>
+      <c r="T97" s="3">
+        <v>340610</v>
+      </c>
+      <c r="U97" s="5" t="e">
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="V97" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="K92" s="3" t="s">
+      <c r="W97" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L92" s="3">
-        <v>8399</v>
-      </c>
-      <c r="M92" s="5" t="e">
-        <f t="shared" si="7"/>
+      <c r="X97" s="3">
+        <v>7759</v>
+      </c>
+      <c r="Y97" s="5" t="e">
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N92" s="3" t="s">
+      <c r="Z97" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="O92" s="3" t="s">
+      <c r="AA97" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="P92" s="3">
-        <v>6523</v>
-      </c>
-      <c r="Q92" s="5" t="e">
-        <f t="shared" si="8"/>
+      <c r="AB97" s="3">
+        <v>5059</v>
+      </c>
+      <c r="AC97" s="5" t="e">
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R92" s="3" t="s">
+      <c r="AE97" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF97" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG97" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33">
+      <c r="A98" t="s">
+        <v>163</v>
+      </c>
+      <c r="B98" s="3">
+        <v>986554</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="S92" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="T92" s="3">
-        <v>2213655</v>
-      </c>
-      <c r="U92" s="5" t="e">
+      <c r="F98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H98" s="3">
+        <v>135313</v>
+      </c>
+      <c r="I98" s="5" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V92" s="3" t="s">
+      <c r="J98" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="W92" s="3" t="s">
+      <c r="K98" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X92" s="3">
-        <v>116908</v>
-      </c>
-      <c r="Y92" s="5" t="e">
+      <c r="L98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M98" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z92" s="3" t="s">
+      <c r="N98" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AA92" s="3" t="s">
+      <c r="O98" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AB92" s="3">
-        <v>70986</v>
-      </c>
-      <c r="AC92" s="5" t="e">
+      <c r="P98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q98" s="5" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="93" spans="1:29">
-      <c r="A93" t="s">
-        <v>158</v>
-      </c>
-      <c r="B93" s="3">
-        <v>258516</v>
-      </c>
-      <c r="C93" s="3">
-        <v>8957</v>
-      </c>
-      <c r="D93" s="3">
-        <v>6565</v>
-      </c>
-      <c r="F93" s="3">
-        <v>5162</v>
-      </c>
-      <c r="G93" s="3">
-        <v>4360</v>
-      </c>
-      <c r="H93" s="3">
-        <v>9522</v>
-      </c>
-      <c r="I93" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="3">
-        <v>211</v>
-      </c>
-      <c r="K93" s="3">
-        <v>245</v>
-      </c>
-      <c r="L93" s="3">
-        <v>456</v>
-      </c>
-      <c r="M93" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N93" s="3">
-        <v>206</v>
-      </c>
-      <c r="O93" s="3">
-        <v>156</v>
-      </c>
-      <c r="P93" s="3">
-        <v>362</v>
-      </c>
-      <c r="Q93" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R93" s="3">
-        <v>127514</v>
-      </c>
-      <c r="S93" s="3">
-        <v>121480</v>
-      </c>
-      <c r="T93" s="3">
-        <v>248994</v>
-      </c>
-      <c r="U93" s="5">
+      <c r="R98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T98" s="3">
+        <v>851241</v>
+      </c>
+      <c r="U98" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="W98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="X98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y98" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC98" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE98" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF98" s="5" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG98" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33">
+      <c r="A99" t="s">
+        <v>164</v>
+      </c>
+      <c r="B99" s="3">
+        <v>728693</v>
+      </c>
+      <c r="C99" s="3">
+        <v>14535</v>
+      </c>
+      <c r="D99" s="3">
+        <v>11895</v>
+      </c>
+      <c r="F99" s="3">
+        <v>29211</v>
+      </c>
+      <c r="G99" s="3">
+        <v>26029</v>
+      </c>
+      <c r="H99" s="3">
+        <v>55240</v>
+      </c>
+      <c r="I99" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V93" s="3">
-        <v>4257</v>
-      </c>
-      <c r="W93" s="3">
-        <v>4244</v>
-      </c>
-      <c r="X93" s="3">
-        <v>8501</v>
-      </c>
-      <c r="Y93" s="5">
+      <c r="J99" s="3">
+        <v>1462</v>
+      </c>
+      <c r="K99" s="3">
+        <v>1407</v>
+      </c>
+      <c r="L99" s="3">
+        <v>2869</v>
+      </c>
+      <c r="M99" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z93" s="3">
-        <v>3014</v>
-      </c>
-      <c r="AA93" s="3">
-        <v>3189</v>
-      </c>
-      <c r="AB93" s="3">
-        <v>6203</v>
-      </c>
-      <c r="AC93" s="5">
+      <c r="N99" s="3">
+        <v>1405</v>
+      </c>
+      <c r="O99" s="3">
+        <v>1265</v>
+      </c>
+      <c r="P99" s="3">
+        <v>2670</v>
+      </c>
+      <c r="Q99" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:29">
-      <c r="A94" t="s">
-        <v>159</v>
-      </c>
-      <c r="B94" s="3">
-        <v>36695</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="R99" s="3">
+        <v>364652</v>
+      </c>
+      <c r="S99" s="3">
+        <v>308801</v>
+      </c>
+      <c r="T99" s="3">
+        <v>673453</v>
+      </c>
+      <c r="U99" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>6356</v>
+      </c>
+      <c r="W99" s="3">
+        <v>5310</v>
+      </c>
+      <c r="X99" s="3">
+        <v>11666</v>
+      </c>
+      <c r="Y99" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>5107</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>4118</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>9225</v>
+      </c>
+      <c r="AC99" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE99" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF99" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG99" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33">
+      <c r="A100" t="s">
+        <v>165</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1058993</v>
+      </c>
+      <c r="C100" s="3">
+        <v>28070</v>
+      </c>
+      <c r="D100" s="3">
+        <v>15791</v>
+      </c>
+      <c r="F100" s="3">
+        <v>35506</v>
+      </c>
+      <c r="G100" s="3">
+        <v>27772</v>
+      </c>
+      <c r="H100" s="3">
+        <v>63278</v>
+      </c>
+      <c r="I100" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1311</v>
+      </c>
+      <c r="K100" s="3">
+        <v>1261</v>
+      </c>
+      <c r="L100" s="3">
+        <v>2572</v>
+      </c>
+      <c r="M100" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>819</v>
+      </c>
+      <c r="O100" s="3">
+        <v>756</v>
+      </c>
+      <c r="P100" s="3">
+        <v>1575</v>
+      </c>
+      <c r="Q100" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>543570</v>
+      </c>
+      <c r="S100" s="3">
+        <v>452145</v>
+      </c>
+      <c r="T100" s="3">
+        <v>995715</v>
+      </c>
+      <c r="U100" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>13559</v>
+      </c>
+      <c r="W100" s="3">
+        <v>11939</v>
+      </c>
+      <c r="X100" s="3">
+        <v>25498</v>
+      </c>
+      <c r="Y100" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>7569</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>6647</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>14216</v>
+      </c>
+      <c r="AC100" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE100" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF100" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG100" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
+      <c r="A101" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1686500</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>27990</v>
-      </c>
-      <c r="S94" s="3">
-        <v>8705</v>
-      </c>
-      <c r="T94" s="3">
-        <v>36695</v>
-      </c>
-      <c r="U94" s="5">
+      <c r="F101" s="3">
+        <v>133300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>101200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>234500</v>
+      </c>
+      <c r="I101" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
+      <c r="J101" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="W94" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X94" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="Y94" s="5" t="e">
+      <c r="M101" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z94" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AA94" s="3" t="s">
+      <c r="O101" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AB94" s="3" t="s">
+      <c r="P101" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AC94" s="5" t="e">
+      <c r="Q101" s="5" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="95" spans="1:29">
-      <c r="A95" t="s">
-        <v>160</v>
-      </c>
-      <c r="B95" s="3">
-        <v>6881034</v>
-      </c>
-      <c r="C95" s="3">
-        <v>331325</v>
-      </c>
-      <c r="D95" s="3">
-        <v>227226</v>
-      </c>
-      <c r="F95" s="3">
-        <v>216750</v>
-      </c>
-      <c r="G95" s="3">
-        <v>137693</v>
-      </c>
-      <c r="H95" s="3">
-        <v>628092</v>
-      </c>
-      <c r="I95" s="5">
-        <f t="shared" si="6"/>
-        <v>-273649</v>
-      </c>
-      <c r="J95" s="3">
-        <v>8216</v>
-      </c>
-      <c r="K95" s="3">
-        <v>7945</v>
-      </c>
-      <c r="L95" s="3">
-        <v>24560</v>
-      </c>
-      <c r="M95" s="5">
-        <f t="shared" si="7"/>
-        <v>-8399</v>
-      </c>
-      <c r="N95" s="3">
-        <v>7837</v>
-      </c>
-      <c r="O95" s="3">
-        <v>5542</v>
-      </c>
-      <c r="P95" s="3">
-        <v>19902</v>
-      </c>
-      <c r="Q95" s="5">
-        <f t="shared" si="8"/>
-        <v>-6523</v>
-      </c>
-      <c r="R95" s="3">
-        <v>1303280</v>
-      </c>
-      <c r="S95" s="3">
-        <v>1139819</v>
-      </c>
-      <c r="T95" s="3">
-        <v>6252942</v>
-      </c>
-      <c r="U95" s="5">
-        <f t="shared" si="9"/>
-        <v>-3809843</v>
-      </c>
-      <c r="V95" s="3">
-        <v>97878</v>
-      </c>
-      <c r="W95" s="3">
-        <v>91979</v>
-      </c>
-      <c r="X95" s="3">
-        <v>306765</v>
-      </c>
-      <c r="Y95" s="5">
-        <f t="shared" si="10"/>
-        <v>-116908</v>
-      </c>
-      <c r="Z95" s="3">
-        <v>70910</v>
-      </c>
-      <c r="AA95" s="3">
-        <v>65428</v>
-      </c>
-      <c r="AB95" s="3">
-        <v>207324</v>
-      </c>
-      <c r="AC95" s="5">
-        <f t="shared" si="11"/>
-        <v>-70986</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29">
-      <c r="A96" t="s">
-        <v>161</v>
-      </c>
-      <c r="B96" s="3">
-        <v>892484</v>
-      </c>
-      <c r="C96" s="3">
-        <v>33169</v>
-      </c>
-      <c r="D96" s="3">
-        <v>23660</v>
-      </c>
-      <c r="F96" s="3">
-        <v>56097</v>
-      </c>
-      <c r="G96" s="3">
-        <v>53397</v>
-      </c>
-      <c r="H96" s="3">
-        <v>109494</v>
-      </c>
-      <c r="I96" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>2742</v>
-      </c>
-      <c r="K96" s="3">
-        <v>2536</v>
-      </c>
-      <c r="L96" s="3">
-        <v>5278</v>
-      </c>
-      <c r="M96" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>2253</v>
-      </c>
-      <c r="O96" s="3">
-        <v>1918</v>
-      </c>
-      <c r="P96" s="3">
-        <v>4171</v>
-      </c>
-      <c r="Q96" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>412590</v>
-      </c>
-      <c r="S96" s="3">
-        <v>370400</v>
-      </c>
-      <c r="T96" s="3">
-        <v>782990</v>
-      </c>
-      <c r="U96" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>14577</v>
-      </c>
-      <c r="W96" s="3">
-        <v>13314</v>
-      </c>
-      <c r="X96" s="3">
-        <v>27891</v>
-      </c>
-      <c r="Y96" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>10080</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>9409</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>19489</v>
-      </c>
-      <c r="AC96" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29">
-      <c r="A97" t="s">
-        <v>162</v>
-      </c>
-      <c r="B97" s="3">
-        <v>380605</v>
-      </c>
-      <c r="C97" s="3">
-        <v>9241</v>
-      </c>
-      <c r="D97" s="3">
-        <v>6066</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H97" s="3">
-        <v>39995</v>
-      </c>
-      <c r="I97" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L97" s="3">
-        <v>1482</v>
-      </c>
-      <c r="M97" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="O97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="P97" s="3">
-        <v>1007</v>
-      </c>
-      <c r="Q97" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="S97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="T97" s="3">
-        <v>340610</v>
-      </c>
-      <c r="U97" s="5" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="W97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="X97" s="3">
-        <v>7759</v>
-      </c>
-      <c r="Y97" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB97" s="3">
-        <v>5059</v>
-      </c>
-      <c r="AC97" s="5" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29">
-      <c r="A98" t="s">
-        <v>163</v>
-      </c>
-      <c r="B98" s="3">
-        <v>986554</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H98" s="3">
-        <v>135313</v>
-      </c>
-      <c r="I98" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="M98" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="O98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="P98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q98" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="S98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="T98" s="3">
-        <v>851241</v>
-      </c>
-      <c r="U98" s="5" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="W98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="X98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y98" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC98" s="5" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29">
-      <c r="A99" t="s">
-        <v>164</v>
-      </c>
-      <c r="B99" s="3">
-        <v>728693</v>
-      </c>
-      <c r="C99" s="3">
-        <v>14535</v>
-      </c>
-      <c r="D99" s="3">
-        <v>11895</v>
-      </c>
-      <c r="F99" s="3">
-        <v>29211</v>
-      </c>
-      <c r="G99" s="3">
-        <v>26029</v>
-      </c>
-      <c r="H99" s="3">
-        <v>55240</v>
-      </c>
-      <c r="I99" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="3">
-        <v>1462</v>
-      </c>
-      <c r="K99" s="3">
-        <v>1407</v>
-      </c>
-      <c r="L99" s="3">
-        <v>2869</v>
-      </c>
-      <c r="M99" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N99" s="3">
-        <v>1405</v>
-      </c>
-      <c r="O99" s="3">
-        <v>1265</v>
-      </c>
-      <c r="P99" s="3">
-        <v>2670</v>
-      </c>
-      <c r="Q99" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R99" s="3">
-        <v>364652</v>
-      </c>
-      <c r="S99" s="3">
-        <v>308801</v>
-      </c>
-      <c r="T99" s="3">
-        <v>673453</v>
-      </c>
-      <c r="U99" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V99" s="3">
-        <v>6356</v>
-      </c>
-      <c r="W99" s="3">
-        <v>5310</v>
-      </c>
-      <c r="X99" s="3">
-        <v>11666</v>
-      </c>
-      <c r="Y99" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z99" s="3">
-        <v>5107</v>
-      </c>
-      <c r="AA99" s="3">
-        <v>4118</v>
-      </c>
-      <c r="AB99" s="3">
-        <v>9225</v>
-      </c>
-      <c r="AC99" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29">
-      <c r="A100" t="s">
-        <v>165</v>
-      </c>
-      <c r="B100" s="3">
-        <v>1058993</v>
-      </c>
-      <c r="C100" s="3">
-        <v>28070</v>
-      </c>
-      <c r="D100" s="3">
-        <v>15791</v>
-      </c>
-      <c r="F100" s="3">
-        <v>35506</v>
-      </c>
-      <c r="G100" s="3">
-        <v>27772</v>
-      </c>
-      <c r="H100" s="3">
-        <v>63278</v>
-      </c>
-      <c r="I100" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1311</v>
-      </c>
-      <c r="K100" s="3">
-        <v>1261</v>
-      </c>
-      <c r="L100" s="3">
-        <v>2572</v>
-      </c>
-      <c r="M100" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>819</v>
-      </c>
-      <c r="O100" s="3">
-        <v>756</v>
-      </c>
-      <c r="P100" s="3">
-        <v>1575</v>
-      </c>
-      <c r="Q100" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>543570</v>
-      </c>
-      <c r="S100" s="3">
-        <v>452145</v>
-      </c>
-      <c r="T100" s="3">
-        <v>995715</v>
-      </c>
-      <c r="U100" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>13559</v>
-      </c>
-      <c r="W100" s="3">
-        <v>11939</v>
-      </c>
-      <c r="X100" s="3">
-        <v>25498</v>
-      </c>
-      <c r="Y100" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>7569</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>6647</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>14216</v>
-      </c>
-      <c r="AC100" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29">
-      <c r="A101" t="s">
-        <v>166</v>
-      </c>
-      <c r="B101" s="3">
-        <v>1686500</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F101" s="3">
-        <v>133300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>101200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>234500</v>
-      </c>
-      <c r="I101" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="M101" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q101" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="R101" s="3">
         <v>782000</v>
       </c>
@@ -11818,7 +13025,7 @@
         <v>1452000</v>
       </c>
       <c r="U101" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
@@ -11831,7 +13038,7 @@
         <v>173</v>
       </c>
       <c r="Y101" s="5" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z101" s="3" t="s">
@@ -11844,11 +13051,23 @@
         <v>173</v>
       </c>
       <c r="AC101" s="5" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="102" spans="1:29">
+      <c r="AE101" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF101" s="5" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG101" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" t="s">
         <v>167</v>
       </c>
@@ -11871,7 +13090,7 @@
         <v>29142</v>
       </c>
       <c r="I102" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J102" s="3">
@@ -11884,7 +13103,7 @@
         <v>1983</v>
       </c>
       <c r="M102" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N102" s="3">
@@ -11897,7 +13116,7 @@
         <v>1425</v>
       </c>
       <c r="Q102" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R102" s="3">
@@ -11910,7 +13129,7 @@
         <v>548366</v>
       </c>
       <c r="U102" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V102" s="3">
@@ -11923,7 +13142,7 @@
         <v>17951</v>
       </c>
       <c r="Y102" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z102" s="3">
@@ -11936,11 +13155,23 @@
         <v>10699</v>
       </c>
       <c r="AC102" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE102" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF102" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG102" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" t="s">
         <v>168</v>
       </c>
@@ -11963,7 +13194,7 @@
         <v>55208</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J103" s="3">
@@ -11976,7 +13207,7 @@
         <v>2830</v>
       </c>
       <c r="M103" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N103" s="3">
@@ -11989,7 +13220,7 @@
         <v>2022</v>
       </c>
       <c r="Q103" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R103" s="3">
@@ -12002,7 +13233,7 @@
         <v>664112</v>
       </c>
       <c r="U103" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V103" s="3">
@@ -12015,7 +13246,7 @@
         <v>17392</v>
       </c>
       <c r="Y103" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z103" s="3">
@@ -12028,11 +13259,23 @@
         <v>13066</v>
       </c>
       <c r="AC103" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE103" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF103" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG103" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33">
       <c r="A104" t="s">
         <v>169</v>
       </c>
@@ -12055,7 +13298,7 @@
         <v>331772</v>
       </c>
       <c r="I104" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="J104" s="3" t="s">
@@ -12079,7 +13322,7 @@
         <v>4776</v>
       </c>
       <c r="Q104" s="5" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="R104" s="3" t="s">
@@ -12092,7 +13335,7 @@
         <v>1578014</v>
       </c>
       <c r="U104" s="5" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="V104" s="3" t="s">
@@ -12105,7 +13348,7 @@
         <v>28608</v>
       </c>
       <c r="Y104" s="5" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z104" s="3" t="s">
@@ -12118,11 +13361,23 @@
         <v>15797</v>
       </c>
       <c r="AC104" s="5" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="105" spans="1:29">
+      <c r="AE104" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF104" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG104" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" t="s">
         <v>170</v>
       </c>
@@ -12145,7 +13400,7 @@
         <v>1053942</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-507080</v>
       </c>
       <c r="J105" s="3">
@@ -12158,7 +13413,7 @@
         <v>23990</v>
       </c>
       <c r="M105" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-8458</v>
       </c>
       <c r="N105" s="3">
@@ -12171,7 +13426,7 @@
         <v>17646</v>
       </c>
       <c r="Q105" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-5783</v>
       </c>
       <c r="R105" s="3">
@@ -12184,7 +13439,7 @@
         <v>7886501</v>
       </c>
       <c r="U105" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2769865</v>
       </c>
       <c r="V105" s="3">
@@ -12197,7 +13452,7 @@
         <v>136765</v>
       </c>
       <c r="Y105" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-36367</v>
       </c>
       <c r="Z105" s="3">
@@ -12210,11 +13465,23 @@
         <v>87551</v>
       </c>
       <c r="AC105" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-20856</v>
       </c>
-    </row>
-    <row r="106" spans="1:29">
+      <c r="AE105" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF105" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG105" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" t="s">
         <v>171</v>
       </c>
@@ -12237,7 +13504,7 @@
         <v>3043777</v>
       </c>
       <c r="I106" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-811027</v>
       </c>
       <c r="J106" s="3">
@@ -12250,7 +13517,7 @@
         <v>89767</v>
       </c>
       <c r="M106" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-17805</v>
       </c>
       <c r="N106" s="3">
@@ -12263,7 +13530,7 @@
         <v>64001</v>
       </c>
       <c r="Q106" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-12846</v>
       </c>
       <c r="R106" s="3">
@@ -12276,7 +13543,7 @@
         <v>23148332</v>
       </c>
       <c r="U106" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-6579708</v>
       </c>
       <c r="V106" s="3">
@@ -12289,7 +13556,7 @@
         <v>784544</v>
       </c>
       <c r="Y106" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-156385</v>
       </c>
       <c r="Z106" s="3">
@@ -12302,11 +13569,23 @@
         <v>478774</v>
       </c>
       <c r="AC106" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-93434</v>
       </c>
-    </row>
-    <row r="107" spans="1:29">
+      <c r="AE106" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF106" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG106" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33">
       <c r="A107" t="s">
         <v>172</v>
       </c>
@@ -12329,7 +13608,7 @@
         <v>18176665</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-994640</v>
       </c>
       <c r="J107" s="3">
@@ -12342,7 +13621,7 @@
         <v>660057</v>
       </c>
       <c r="M107" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-24497</v>
       </c>
       <c r="N107" s="3">
@@ -12355,7 +13634,7 @@
         <v>461944</v>
       </c>
       <c r="Q107" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-17573</v>
       </c>
       <c r="R107" s="3">
@@ -12368,7 +13647,7 @@
         <v>127777940</v>
       </c>
       <c r="U107" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-9781746</v>
       </c>
       <c r="V107" s="3">
@@ -12381,7 +13660,7 @@
         <v>5753428</v>
       </c>
       <c r="Y107" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-239899</v>
       </c>
       <c r="Z107" s="3">
@@ -12394,11 +13673,14 @@
         <v>3487283</v>
       </c>
       <c r="AC107" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-146559</v>
       </c>
-    </row>
-    <row r="108" spans="1:29">
+      <c r="AE107" s="5"/>
+      <c r="AF107" s="5"/>
+      <c r="AG107" s="5"/>
+    </row>
+    <row r="108" spans="1:33">
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -12423,8 +13705,11 @@
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
       <c r="AC108" s="5"/>
-    </row>
-    <row r="109" spans="1:29">
+      <c r="AE108" s="5"/>
+      <c r="AF108" s="5"/>
+      <c r="AG108" s="5"/>
+    </row>
+    <row r="109" spans="1:33">
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -12449,8 +13734,11 @@
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
       <c r="AC109" s="5"/>
-    </row>
-    <row r="110" spans="1:29">
+      <c r="AE109" s="5"/>
+      <c r="AF109" s="5"/>
+      <c r="AG109" s="5"/>
+    </row>
+    <row r="110" spans="1:33">
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -12475,8 +13763,11 @@
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
       <c r="AC110" s="5"/>
-    </row>
-    <row r="111" spans="1:29">
+      <c r="AE110" s="5"/>
+      <c r="AF110" s="5"/>
+      <c r="AG110" s="5"/>
+    </row>
+    <row r="111" spans="1:33">
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -12501,8 +13792,11 @@
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
       <c r="AC111" s="5"/>
-    </row>
-    <row r="112" spans="1:29">
+      <c r="AE111" s="5"/>
+      <c r="AF111" s="5"/>
+      <c r="AG111" s="5"/>
+    </row>
+    <row r="112" spans="1:33">
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -12527,8 +13821,11 @@
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
       <c r="AC112" s="5"/>
-    </row>
-    <row r="113" spans="6:29">
+      <c r="AE112" s="5"/>
+      <c r="AF112" s="5"/>
+      <c r="AG112" s="5"/>
+    </row>
+    <row r="113" spans="6:33">
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -12553,8 +13850,11 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
       <c r="AC113" s="5"/>
-    </row>
-    <row r="114" spans="6:29">
+      <c r="AE113" s="5"/>
+      <c r="AF113" s="5"/>
+      <c r="AG113" s="5"/>
+    </row>
+    <row r="114" spans="6:33">
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -12579,8 +13879,11 @@
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
       <c r="AC114" s="5"/>
-    </row>
-    <row r="115" spans="6:29">
+      <c r="AE114" s="5"/>
+      <c r="AF114" s="5"/>
+      <c r="AG114" s="5"/>
+    </row>
+    <row r="115" spans="6:33">
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -12605,8 +13908,11 @@
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
       <c r="AC115" s="5"/>
-    </row>
-    <row r="116" spans="6:29">
+      <c r="AE115" s="5"/>
+      <c r="AF115" s="5"/>
+      <c r="AG115" s="5"/>
+    </row>
+    <row r="116" spans="6:33">
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -12631,8 +13937,11 @@
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
       <c r="AC116" s="5"/>
-    </row>
-    <row r="117" spans="6:29">
+      <c r="AE116" s="5"/>
+      <c r="AF116" s="5"/>
+      <c r="AG116" s="5"/>
+    </row>
+    <row r="117" spans="6:33">
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -12657,8 +13966,11 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
       <c r="AC117" s="5"/>
-    </row>
-    <row r="118" spans="6:29">
+      <c r="AE117" s="5"/>
+      <c r="AF117" s="5"/>
+      <c r="AG117" s="5"/>
+    </row>
+    <row r="118" spans="6:33">
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -12683,6 +13995,29 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
       <c r="AC118" s="5"/>
+      <c r="AE118" s="5"/>
+      <c r="AF118" s="5"/>
+      <c r="AG118" s="5"/>
+    </row>
+    <row r="119" spans="6:33">
+      <c r="AE119" s="5"/>
+      <c r="AF119" s="5"/>
+      <c r="AG119" s="5"/>
+    </row>
+    <row r="120" spans="6:33">
+      <c r="AE120" s="5"/>
+      <c r="AF120" s="5"/>
+      <c r="AG120" s="5"/>
+    </row>
+    <row r="121" spans="6:33">
+      <c r="AE121" s="5"/>
+      <c r="AF121" s="5"/>
+      <c r="AG121" s="5"/>
+    </row>
+    <row r="122" spans="6:33">
+      <c r="AE122" s="5"/>
+      <c r="AF122" s="5"/>
+      <c r="AG122" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
